--- a/bug report.xlsx
+++ b/bug report.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vmivsp-my.sharepoint.com/personal/ruchita_bhogapuram_valuemomentum_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vmivsp-my.sharepoint.com/personal/niteesh_kumar_valuemomentum_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95B5BD1-411B-4F41-B2AE-3400FEFD3A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{7323C7B5-BB92-4479-BC15-CCEA4FA38195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1A56F1A-7BFA-43DB-806D-B73359536FCF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{19ECD41C-7EFD-42EB-B0E4-76B17CAB0C23}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C83CD60B-147A-42CA-8D28-F62A2170DA05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bug Report" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,130 +34,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
-  <si>
-    <t>BUG REPORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUG ID </t>
-  </si>
-  <si>
-    <t>TESTER</t>
-  </si>
-  <si>
-    <t>DATE (SUBMITTED)</t>
-  </si>
-  <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>BUG DESCRIPTION</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>SUMMARY</t>
-  </si>
-  <si>
-    <t>SCREENSHORT</t>
-  </si>
-  <si>
-    <t>PLATFORM</t>
-  </si>
-  <si>
-    <t>BROWSER</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVE</t>
-  </si>
-  <si>
-    <t>ASSIGNED TO</t>
-  </si>
-  <si>
-    <t>ASSIGNED AT</t>
-  </si>
-  <si>
-    <t>PRIORITY</t>
-  </si>
-  <si>
-    <t>SEVERITY</t>
-  </si>
-  <si>
-    <t>#test_ABC</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>01.11.2018</t>
-  </si>
-  <si>
-    <t>CONTACT FORM - No conformation message is shown</t>
-  </si>
-  <si>
-    <t>http://milleniumfalcon.rebells/contact-us</t>
-  </si>
-  <si>
-    <t>The page where the contact form is on does not show any confirmation message after submitting a contact reguest.</t>
-  </si>
-  <si>
-    <t>see attached screenshots</t>
-  </si>
-  <si>
-    <t>Mac OS 10.14</t>
-  </si>
-  <si>
-    <t>Chrome 69.0.3497.100 (Office Build) (64-bit)</t>
-  </si>
-  <si>
-    <t>Chewbacca</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>ADDITIONAL NOTES:</t>
-  </si>
-  <si>
-    <t>STEP - BY - STEP</t>
-  </si>
-  <si>
-    <t>Filled out contact  form</t>
-  </si>
-  <si>
-    <t>clicked on submit</t>
-  </si>
-  <si>
-    <t>form loaded a while</t>
-  </si>
-  <si>
-    <t>contact form showed "&lt;empty&gt;"</t>
-  </si>
-  <si>
-    <t>SCREENSHOTS:</t>
-  </si>
-  <si>
-    <t>RESULT - SHOULD:</t>
-  </si>
-  <si>
-    <t>"Thank you for contacting us, we will get in touch shortly"</t>
-  </si>
-  <si>
-    <t>RESULT - IS:</t>
-  </si>
-  <si>
-    <t>"&lt;empty&gt;"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+  <si>
+    <t>Default ID</t>
+  </si>
+  <si>
+    <t>Defect Description</t>
+  </si>
+  <si>
+    <t>Steps to reproduce</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Created by</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>1-Medium</t>
+  </si>
+  <si>
+    <t>QA lead</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>While user Checking about the Opencart
+Privacy policy  it doesnot displays any policies</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>While Writing an review About the Product
+the OpenCart allow the user to write the 
+reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Lanch google.com and search for Opencart
+website
+2.Click On the OpenCart demo
+https://demo.opencart.com/
+Expected result: The Privacy policy should 
+display all privacy policies.
+Actual result: The Privacy policy is not displaying any policies
+</t>
+  </si>
+  <si>
+    <t>1.Lanch google.com and search for Opencart
+website
+2.Click On the OpenCart demo
+https://demo.opencart.com/
+3.Click On Any product in the Site and Write
+a review on it.
+Expected result: The OpenCart must allow the
+User to write the review.
+Actual result: Not showing any response While
+clicking on "Write a review"</t>
+  </si>
+  <si>
+    <t>The Product Should be added to the Shopping
+cart after the user click on the Add to Cart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Launch Google.com and search for OpenCart
+website.
+2.Click on the OpenCart demo
+https://demo.opencart.com/
+3.Add a product to the cart.
+Expected result: The Product Should be visible in
+the shopping cart.
+Actual result: The product is not available in the 
+shopping cart.
+</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Niteesh</t>
+  </si>
+  <si>
+    <t>Hewlett-Packards defect report-Cycle1 Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launching Hewlett-Packards from google search results page causes the site to be open in the
+vietnamese language
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Launch google.com and search for Hewlett-Packards website
+2.click on the Hewlett-Packards demo page 
+https://opensource-demo.Hewlett-Packardslive.com/
+Expected result: The Hewlett-Packards page should
+be displayed in English
+Actual result: The site is displayed in vietnemese
+Note: The site goes back to being displayed in
+English,On refreshing the Page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hewlett-Packards site should login with Valid 
+credentials but sometimes the site displaying Invalid
+credentials
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Launch google.com and search for Hewlett-Packards website
+2.click on the Hewlett-Packards demo page 
+https://opensource-demo.Hewlett-Packardslive.com/
+3.Login With Valid Credentials and Click on 
+login button
+Expected result: It Has to display Dashboard 
+after successful login
+Actual result: It is showing invalid credentials
+with valid credentials 
+Note: It is logging in successfully after refreshing the site Multiple times
+</t>
+  </si>
+  <si>
+    <t>While using Hewlett-Packards. A User  can able to Edit his own Profile but Hewlett-Packards 
+allows to Change everyone's Profile</t>
+  </si>
+  <si>
+    <t>1.Launch google.com and search for Orange
+HRM website
+2.click on the Hewlett-Packards demo page 
+https://opensource-demo.Hewlett-Packardslive.com/
+3.Login With Valid Credentials and Click on 
+login button
+4.Select any user  from the Admin.
+5.Edit the user
+Expected result: It only allow the User to change 
+his own Profile
+Actual result:It allows Everyone to Edit the Profile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,42 +196,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="36"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Bookman Old Style"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Bookman Old Style"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -210,24 +235,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -237,6 +299,305 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68384</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>97692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1452701</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>898769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A5F832F-491B-7A6A-DE73-9B4C980807A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4525" t="11270" r="45953" b="38345"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10296769" y="2745154"/>
+          <a:ext cx="1384317" cy="801077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>150592</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>368453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1414513</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1242392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77C89E0-6DE4-3D53-9911-40F07F70C338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="15427" b="15427"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10542180" y="5164571"/>
+          <a:ext cx="1263921" cy="873939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1499740</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1177636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8C37FD-3270-9772-D999-C43F1185B3BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="16340" t="20598" r="29293" b="11534"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10310091" y="7989456"/>
+          <a:ext cx="1430467" cy="1004453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1373131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A66066F-6B87-5E0D-B6ED-6D2C8AD236D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4318" t="10361" r="28254" b="43013"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10525125" y="10382251"/>
+          <a:ext cx="1285875" cy="1182630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60741</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>77306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1460530</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>889000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5859449A-F669-EC17-49EF-A2B1FFF339C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="21007" b="21007"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10452329" y="12306659"/>
+          <a:ext cx="1399789" cy="811694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1131957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1491186</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1976783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26DA4C0A-9223-0BE6-349F-747FBAEB7797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="14278" r="14278"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10474413" y="13361310"/>
+          <a:ext cx="1408361" cy="844826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,215 +896,308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E67A83-9D77-4045-9C6E-C07BD3EB281D}">
-  <dimension ref="A1:D59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DC2C24-5567-4FC7-8672-51453CBE05A4}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="45.08984375" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46" x14ac:dyDescent="0.95">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="27.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="199" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="149" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="237" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="188" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="214" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A29" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A41" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>3</v>
-      </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A52" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D59" t="s">
-        <v>38</v>
-      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1" xr:uid="{9DF3F83B-9589-444D-AD63-6EA757AAB483}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{13085c86-4bcb-460a-a6f0-b373421c6323}" enabled="0" method="" siteId="{13085c86-4bcb-460a-a6f0-b373421c6323}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/bug report.xlsx
+++ b/bug report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vmivsp-my.sharepoint.com/personal/ruchita_bhogapuram_valuemomentum_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vmivsp-my.sharepoint.com/personal/satyabhavani_gedela_valuemomentum_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95B5BD1-411B-4F41-B2AE-3400FEFD3A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{7D328ACD-40E0-4E4D-8D0E-FC4A1F574CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E08EABC4-FDD8-459E-9D6C-CD21B3748F56}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{19ECD41C-7EFD-42EB-B0E4-76B17CAB0C23}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B4C438E4-5DC5-45FD-BFE5-0FAF6DAB2CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,151 +35,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
-  <si>
-    <t>BUG REPORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUG ID </t>
-  </si>
-  <si>
-    <t>TESTER</t>
-  </si>
-  <si>
-    <t>DATE (SUBMITTED)</t>
-  </si>
-  <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>BUG DESCRIPTION</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>SUMMARY</t>
-  </si>
-  <si>
-    <t>SCREENSHORT</t>
-  </si>
-  <si>
-    <t>PLATFORM</t>
-  </si>
-  <si>
-    <t>BROWSER</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVE</t>
-  </si>
-  <si>
-    <t>ASSIGNED TO</t>
-  </si>
-  <si>
-    <t>ASSIGNED AT</t>
-  </si>
-  <si>
-    <t>PRIORITY</t>
-  </si>
-  <si>
-    <t>SEVERITY</t>
-  </si>
-  <si>
-    <t>#test_ABC</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>01.11.2018</t>
-  </si>
-  <si>
-    <t>CONTACT FORM - No conformation message is shown</t>
-  </si>
-  <si>
-    <t>http://milleniumfalcon.rebells/contact-us</t>
-  </si>
-  <si>
-    <t>The page where the contact form is on does not show any confirmation message after submitting a contact reguest.</t>
-  </si>
-  <si>
-    <t>see attached screenshots</t>
-  </si>
-  <si>
-    <t>Mac OS 10.14</t>
-  </si>
-  <si>
-    <t>Chrome 69.0.3497.100 (Office Build) (64-bit)</t>
-  </si>
-  <si>
-    <t>Chewbacca</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>ID Number</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Reporter</t>
+  </si>
+  <si>
+    <t>Submit Date</t>
+  </si>
+  <si>
+    <t>Satya Bhavani .G</t>
+  </si>
+  <si>
+    <t>Bug Overview</t>
+  </si>
+  <si>
+    <t>summery</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>screenshort</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>operating aystem</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>https://www.sitepoint.com/php</t>
+  </si>
+  <si>
+    <t>www.example.com/screenshort1234</t>
+  </si>
+  <si>
+    <t>Evironment</t>
+  </si>
+  <si>
+    <t>Bug Details</t>
+  </si>
+  <si>
+    <t>steps to response</t>
+  </si>
+  <si>
+    <t>expected result</t>
+  </si>
+  <si>
+    <t>actul result</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>bug tracking</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>assigned to</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>windows10</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>login to page&gt;add visitor page&gt; manage visitor page&gt;update visitor page&gt;full visitor page</t>
+  </si>
+  <si>
+    <t>This page is opened</t>
+  </si>
+  <si>
+    <t>this page is opened successfully</t>
+  </si>
+  <si>
+    <t>Company visitor management system</t>
+  </si>
+  <si>
+    <t>CVMS deals with with the security provides at company permisses for the unauthenticated or unwanted visitors.</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
   <si>
     <t>High</t>
   </si>
   <si>
+    <t>marry</t>
+  </si>
+  <si>
     <t>Critical</t>
   </si>
   <si>
-    <t>ADDITIONAL NOTES:</t>
-  </si>
-  <si>
-    <t>STEP - BY - STEP</t>
-  </si>
-  <si>
-    <t>Filled out contact  form</t>
-  </si>
-  <si>
-    <t>clicked on submit</t>
-  </si>
-  <si>
-    <t>form loaded a while</t>
-  </si>
-  <si>
-    <t>contact form showed "&lt;empty&gt;"</t>
-  </si>
-  <si>
-    <t>SCREENSHOTS:</t>
-  </si>
-  <si>
-    <t>RESULT - SHOULD:</t>
-  </si>
-  <si>
-    <t>"Thank you for contacting us, we will get in touch shortly"</t>
-  </si>
-  <si>
-    <t>RESULT - IS:</t>
-  </si>
-  <si>
-    <t>"&lt;empty&gt;"</t>
+    <t xml:space="preserve">windows </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Bookman Old Style"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Bookman Old Style"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -213,14 +197,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -535,215 +520,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E67A83-9D77-4045-9C6E-C07BD3EB281D}">
-  <dimension ref="A1:D59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A6E1AD-9866-4A66-8F2A-23B9FC847A98}">
+  <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="4" width="20.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46" x14ac:dyDescent="0.95">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="27.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A29" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A41" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>3</v>
-      </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A52" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D56" t="s">
+      <c r="C19" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D59" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1" xr:uid="{9DF3F83B-9589-444D-AD63-6EA757AAB483}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{2D472C39-9C70-462F-9EDC-356E5018C83C}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{C3B60B16-61DB-4EC0-A169-40D4F7C8DF28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{13085c86-4bcb-460a-a6f0-b373421c6323}" enabled="0" method="" siteId="{13085c86-4bcb-460a-a6f0-b373421c6323}" removed="1"/>
+</clbl:labelList>
 </file>